--- a/utils/gds_files/expevo_samps.xlsx
+++ b/utils/gds_files/expevo_samps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/work/Teaching/  BIOL4559 - computational mol evo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/utils/gds_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA64606-14CA-9247-8D8D-1095EB2EE5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702255AE-33DE-3046-BBA3-CA2EFA2C4B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2760" windowWidth="25240" windowHeight="12600" xr2:uid="{0BB9E18F-2BBA-4141-986C-60165C1F0EA3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="271">
   <si>
     <t>ExpEvo_PRJNA194129_BL_1_2010-06-DD</t>
   </si>
@@ -44,12 +44,6 @@
     <t>BL_1</t>
   </si>
   <si>
-    <t>33.7756° N</t>
-  </si>
-  <si>
-    <t>84.3963° W</t>
-  </si>
-  <si>
     <t>North_America</t>
   </si>
   <si>
@@ -852,6 +846,9 @@
   </si>
   <si>
     <t>ExpEvo_SRP002024_CO_4_1975-MM-DD</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -988,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1014,6 +1011,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60C520E-CB1D-8340-B3C4-4A49B2EBA725}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J11" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1342,73 +1340,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1418,23 +1416,23 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="C2" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D2" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1458,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="3">
         <v>1</v>
@@ -1467,45 +1465,45 @@
         <v>100</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D3" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1529,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="3">
         <v>1</v>
@@ -1538,45 +1536,45 @@
         <v>100</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1600,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="3">
         <v>1</v>
@@ -1609,45 +1607,45 @@
         <v>100</v>
       </c>
       <c r="S4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D5" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1671,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="3">
         <v>1</v>
@@ -1680,45 +1678,45 @@
         <v>100</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D6" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -1742,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="3">
         <v>1</v>
@@ -1751,45 +1749,45 @@
         <v>100</v>
       </c>
       <c r="S6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D7" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -1813,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="3">
         <v>1</v>
@@ -1822,45 +1820,45 @@
         <v>100</v>
       </c>
       <c r="S7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -1884,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="3">
         <v>1</v>
@@ -1893,45 +1891,45 @@
         <v>100</v>
       </c>
       <c r="S8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -1955,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="3">
         <v>1</v>
@@ -1964,45 +1962,45 @@
         <v>100</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -2026,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="3">
         <v>1</v>
@@ -2035,45 +2033,45 @@
         <v>100</v>
       </c>
       <c r="S10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="C11" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -2097,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="3">
         <v>1</v>
@@ -2106,45 +2104,45 @@
         <v>100</v>
       </c>
       <c r="S11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D12" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -2168,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="3">
         <v>1</v>
@@ -2177,45 +2175,45 @@
         <v>100</v>
       </c>
       <c r="S12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U12" s="2" t="s">
+      <c r="V12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D13" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -2239,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="3">
         <v>1</v>
@@ -2248,45 +2246,45 @@
         <v>100</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D14" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -2310,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="3">
         <v>1</v>
@@ -2319,45 +2317,45 @@
         <v>100</v>
       </c>
       <c r="S14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D15" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2381,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="3">
         <v>1</v>
@@ -2390,45 +2388,45 @@
         <v>100</v>
       </c>
       <c r="S15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D16" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2452,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="3">
         <v>1</v>
@@ -2461,45 +2459,45 @@
         <v>100</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="2" t="s">
+      <c r="V16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C17" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D17" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -2523,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="3">
         <v>1</v>
@@ -2532,45 +2530,45 @@
         <v>100</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="C18" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D18" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -2594,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="3">
         <v>1</v>
@@ -2603,45 +2601,45 @@
         <v>100</v>
       </c>
       <c r="S18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U18" s="2" t="s">
+      <c r="V18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W18" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="C19" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D19" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -2665,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="3">
         <v>1</v>
@@ -2674,45 +2672,45 @@
         <v>100</v>
       </c>
       <c r="S19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U19" s="2" t="s">
+      <c r="V19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="C20" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D20" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -2736,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="3">
         <v>1</v>
@@ -2745,45 +2743,45 @@
         <v>100</v>
       </c>
       <c r="S20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U20" s="2" t="s">
+      <c r="V20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W20" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="C21" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D21" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -2807,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="3">
         <v>1</v>
@@ -2816,45 +2814,45 @@
         <v>100</v>
       </c>
       <c r="S21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U21" s="2" t="s">
+      <c r="V21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="C22" s="3">
+        <v>33.775599999999997</v>
+      </c>
+      <c r="D22" s="3">
+        <v>84.396299999999997</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
@@ -2878,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="3">
         <v>1</v>
@@ -2887,27 +2885,27 @@
         <v>100</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3">
         <v>38.519399999999997</v>
@@ -2916,16 +2914,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
@@ -2949,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="3">
         <v>1</v>
@@ -2958,27 +2956,27 @@
         <v>200</v>
       </c>
       <c r="S23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3">
         <v>38.519399999999997</v>
@@ -2987,16 +2985,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
@@ -3020,7 +3018,7 @@
         <v>2</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="3">
         <v>1</v>
@@ -3029,27 +3027,27 @@
         <v>200</v>
       </c>
       <c r="S24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3">
         <v>38.519399999999997</v>
@@ -3058,16 +3056,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -3091,7 +3089,7 @@
         <v>3</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="3">
         <v>1</v>
@@ -3100,27 +3098,27 @@
         <v>200</v>
       </c>
       <c r="S25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3">
         <v>38.519399999999997</v>
@@ -3129,16 +3127,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
@@ -3162,7 +3160,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="3">
         <v>1</v>
@@ -3171,27 +3169,27 @@
         <v>200</v>
       </c>
       <c r="S26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="3">
         <v>38.519399999999997</v>
@@ -3200,16 +3198,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
@@ -3233,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q27" s="3">
         <v>1</v>
@@ -3242,27 +3240,27 @@
         <v>200</v>
       </c>
       <c r="S27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3">
         <v>38.519399999999997</v>
@@ -3271,16 +3269,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
@@ -3304,7 +3302,7 @@
         <v>2</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q28" s="3">
         <v>1</v>
@@ -3313,27 +3311,27 @@
         <v>200</v>
       </c>
       <c r="S28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C29" s="3">
         <v>38.519399999999997</v>
@@ -3342,16 +3340,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
@@ -3375,7 +3373,7 @@
         <v>3</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q29" s="3">
         <v>1</v>
@@ -3384,27 +3382,27 @@
         <v>200</v>
       </c>
       <c r="S29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3">
         <v>38.519399999999997</v>
@@ -3413,16 +3411,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
@@ -3446,7 +3444,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q30" s="3">
         <v>1</v>
@@ -3455,27 +3453,27 @@
         <v>200</v>
       </c>
       <c r="S30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3">
         <v>38.519399999999997</v>
@@ -3484,16 +3482,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
@@ -3517,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q31" s="3">
         <v>1</v>
@@ -3526,27 +3524,27 @@
         <v>200</v>
       </c>
       <c r="S31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U31" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C32" s="3">
         <v>38.519399999999997</v>
@@ -3555,16 +3553,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
@@ -3588,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q32" s="3">
         <v>1</v>
@@ -3597,27 +3595,27 @@
         <v>200</v>
       </c>
       <c r="S32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C33" s="3">
         <v>38.519399999999997</v>
@@ -3626,16 +3624,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
@@ -3659,7 +3657,7 @@
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q33" s="3">
         <v>1</v>
@@ -3668,27 +3666,27 @@
         <v>200</v>
       </c>
       <c r="S33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U33" s="3" t="s">
+      <c r="W33" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" s="3">
         <v>38.519399999999997</v>
@@ -3697,16 +3695,16 @@
         <v>-9.0137999999999998</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I34" s="3">
         <v>1</v>
@@ -3730,7 +3728,7 @@
         <v>4</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q34" s="3">
         <v>1</v>
@@ -3739,27 +3737,27 @@
         <v>200</v>
       </c>
       <c r="S34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U34" s="3" t="s">
+      <c r="W34" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C35" s="9">
         <v>39.833851000000003</v>
@@ -3768,13 +3766,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3798,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -3807,27 +3808,27 @@
         <v>100</v>
       </c>
       <c r="S35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U35" t="s">
+        <v>106</v>
+      </c>
+      <c r="V35" t="s">
+        <v>107</v>
+      </c>
+      <c r="W35" t="s">
         <v>108</v>
-      </c>
-      <c r="V35" t="s">
-        <v>109</v>
-      </c>
-      <c r="W35" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C36" s="9">
         <v>39.833851000000003</v>
@@ -3836,13 +3837,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -3866,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="P36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -3875,27 +3879,27 @@
         <v>100</v>
       </c>
       <c r="S36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U36" t="s">
+        <v>106</v>
+      </c>
+      <c r="V36" t="s">
+        <v>110</v>
+      </c>
+      <c r="W36" t="s">
         <v>108</v>
-      </c>
-      <c r="V36" t="s">
-        <v>112</v>
-      </c>
-      <c r="W36" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C37" s="9">
         <v>39.833851000000003</v>
@@ -3904,13 +3908,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3934,7 +3941,7 @@
         <v>3</v>
       </c>
       <c r="P37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -3943,27 +3950,27 @@
         <v>100</v>
       </c>
       <c r="S37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U37" t="s">
+        <v>106</v>
+      </c>
+      <c r="V37" t="s">
+        <v>112</v>
+      </c>
+      <c r="W37" t="s">
         <v>108</v>
-      </c>
-      <c r="V37" t="s">
-        <v>114</v>
-      </c>
-      <c r="W37" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C38" s="9">
         <v>39.833851000000003</v>
@@ -3972,13 +3979,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -4002,7 +4012,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -4011,27 +4021,27 @@
         <v>100</v>
       </c>
       <c r="S38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U38" t="s">
+        <v>106</v>
+      </c>
+      <c r="V38" t="s">
+        <v>114</v>
+      </c>
+      <c r="W38" t="s">
         <v>108</v>
-      </c>
-      <c r="V38" t="s">
-        <v>116</v>
-      </c>
-      <c r="W38" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C39" s="9">
         <v>39.833851000000003</v>
@@ -4040,13 +4050,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -4070,7 +4083,7 @@
         <v>5</v>
       </c>
       <c r="P39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -4079,27 +4092,27 @@
         <v>100</v>
       </c>
       <c r="S39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U39" t="s">
+        <v>106</v>
+      </c>
+      <c r="V39" t="s">
+        <v>116</v>
+      </c>
+      <c r="W39" t="s">
         <v>108</v>
-      </c>
-      <c r="V39" t="s">
-        <v>118</v>
-      </c>
-      <c r="W39" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C40" s="9">
         <v>39.833851000000003</v>
@@ -4108,13 +4121,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -4138,7 +4154,7 @@
         <v>6</v>
       </c>
       <c r="P40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -4147,27 +4163,27 @@
         <v>100</v>
       </c>
       <c r="S40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U40" t="s">
+        <v>106</v>
+      </c>
+      <c r="V40" t="s">
+        <v>118</v>
+      </c>
+      <c r="W40" t="s">
         <v>108</v>
-      </c>
-      <c r="V40" t="s">
-        <v>120</v>
-      </c>
-      <c r="W40" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C41" s="9">
         <v>39.833851000000003</v>
@@ -4176,13 +4192,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -4206,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -4215,27 +4234,27 @@
         <v>100</v>
       </c>
       <c r="S41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U41" t="s">
+        <v>106</v>
+      </c>
+      <c r="V41" t="s">
+        <v>120</v>
+      </c>
+      <c r="W41" t="s">
         <v>108</v>
-      </c>
-      <c r="V41" t="s">
-        <v>122</v>
-      </c>
-      <c r="W41" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C42" s="9">
         <v>39.833851000000003</v>
@@ -4244,13 +4263,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4274,7 +4296,7 @@
         <v>2</v>
       </c>
       <c r="P42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -4283,27 +4305,27 @@
         <v>100</v>
       </c>
       <c r="S42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U42" t="s">
+        <v>106</v>
+      </c>
+      <c r="V42" t="s">
+        <v>122</v>
+      </c>
+      <c r="W42" t="s">
         <v>108</v>
-      </c>
-      <c r="V42" t="s">
-        <v>124</v>
-      </c>
-      <c r="W42" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C43" s="9">
         <v>39.833851000000003</v>
@@ -4312,13 +4334,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4342,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="P43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -4351,27 +4376,27 @@
         <v>100</v>
       </c>
       <c r="S43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U43" t="s">
+        <v>106</v>
+      </c>
+      <c r="V43" t="s">
+        <v>124</v>
+      </c>
+      <c r="W43" t="s">
         <v>108</v>
-      </c>
-      <c r="V43" t="s">
-        <v>126</v>
-      </c>
-      <c r="W43" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C44" s="9">
         <v>39.833851000000003</v>
@@ -4380,13 +4405,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4410,7 +4438,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -4419,27 +4447,27 @@
         <v>100</v>
       </c>
       <c r="S44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U44" t="s">
+        <v>106</v>
+      </c>
+      <c r="V44" t="s">
+        <v>126</v>
+      </c>
+      <c r="W44" t="s">
         <v>108</v>
-      </c>
-      <c r="V44" t="s">
-        <v>128</v>
-      </c>
-      <c r="W44" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C45" s="9">
         <v>39.833851000000003</v>
@@ -4448,13 +4476,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4478,7 +4509,7 @@
         <v>5</v>
       </c>
       <c r="P45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -4487,27 +4518,27 @@
         <v>100</v>
       </c>
       <c r="S45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U45" t="s">
+        <v>106</v>
+      </c>
+      <c r="V45" t="s">
+        <v>128</v>
+      </c>
+      <c r="W45" t="s">
         <v>108</v>
-      </c>
-      <c r="V45" t="s">
-        <v>130</v>
-      </c>
-      <c r="W45" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C46" s="9">
         <v>39.833851000000003</v>
@@ -4516,13 +4547,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4546,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="P46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -4555,27 +4589,27 @@
         <v>100</v>
       </c>
       <c r="S46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U46" t="s">
+        <v>106</v>
+      </c>
+      <c r="V46" t="s">
+        <v>130</v>
+      </c>
+      <c r="W46" t="s">
         <v>108</v>
-      </c>
-      <c r="V46" t="s">
-        <v>132</v>
-      </c>
-      <c r="W46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C47" s="9">
         <v>39.833851000000003</v>
@@ -4584,13 +4618,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4614,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -4623,27 +4660,27 @@
         <v>100</v>
       </c>
       <c r="S47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U47" t="s">
+        <v>106</v>
+      </c>
+      <c r="V47" t="s">
+        <v>132</v>
+      </c>
+      <c r="W47" t="s">
         <v>108</v>
-      </c>
-      <c r="V47" t="s">
-        <v>134</v>
-      </c>
-      <c r="W47" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C48" s="9">
         <v>39.833851000000003</v>
@@ -4652,13 +4689,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4682,7 +4722,7 @@
         <v>2</v>
       </c>
       <c r="P48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -4691,27 +4731,27 @@
         <v>100</v>
       </c>
       <c r="S48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U48" t="s">
+        <v>106</v>
+      </c>
+      <c r="V48" t="s">
+        <v>134</v>
+      </c>
+      <c r="W48" t="s">
         <v>108</v>
-      </c>
-      <c r="V48" t="s">
-        <v>136</v>
-      </c>
-      <c r="W48" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C49" s="9">
         <v>39.833851000000003</v>
@@ -4720,13 +4760,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4750,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="P49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -4759,27 +4802,27 @@
         <v>100</v>
       </c>
       <c r="S49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U49" t="s">
+        <v>106</v>
+      </c>
+      <c r="V49" t="s">
+        <v>136</v>
+      </c>
+      <c r="W49" t="s">
         <v>108</v>
-      </c>
-      <c r="V49" t="s">
-        <v>138</v>
-      </c>
-      <c r="W49" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C50" s="9">
         <v>39.833851000000003</v>
@@ -4788,13 +4831,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -4818,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="P50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -4827,27 +4873,27 @@
         <v>100</v>
       </c>
       <c r="S50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U50" t="s">
+        <v>106</v>
+      </c>
+      <c r="V50" t="s">
+        <v>138</v>
+      </c>
+      <c r="W50" t="s">
         <v>108</v>
-      </c>
-      <c r="V50" t="s">
-        <v>140</v>
-      </c>
-      <c r="W50" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C51" s="9">
         <v>39.833851000000003</v>
@@ -4856,13 +4902,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -4886,7 +4935,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -4895,27 +4944,27 @@
         <v>100</v>
       </c>
       <c r="S51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U51" t="s">
+        <v>106</v>
+      </c>
+      <c r="V51" t="s">
+        <v>140</v>
+      </c>
+      <c r="W51" t="s">
         <v>108</v>
-      </c>
-      <c r="V51" t="s">
-        <v>142</v>
-      </c>
-      <c r="W51" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C52" s="9">
         <v>39.833851000000003</v>
@@ -4924,13 +4973,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -4954,7 +5006,7 @@
         <v>6</v>
       </c>
       <c r="P52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -4963,27 +5015,27 @@
         <v>100</v>
       </c>
       <c r="S52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U52" t="s">
+        <v>106</v>
+      </c>
+      <c r="V52" t="s">
+        <v>142</v>
+      </c>
+      <c r="W52" t="s">
         <v>108</v>
-      </c>
-      <c r="V52" t="s">
-        <v>144</v>
-      </c>
-      <c r="W52" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C53" s="9">
         <v>39.833851000000003</v>
@@ -4992,13 +5044,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -5022,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -5031,27 +5086,27 @@
         <v>100</v>
       </c>
       <c r="S53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U53" t="s">
+        <v>106</v>
+      </c>
+      <c r="V53" t="s">
+        <v>145</v>
+      </c>
+      <c r="W53" t="s">
         <v>108</v>
-      </c>
-      <c r="V53" t="s">
-        <v>147</v>
-      </c>
-      <c r="W53" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C54" s="9">
         <v>39.833851000000003</v>
@@ -5060,13 +5115,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -5090,7 +5148,7 @@
         <v>2</v>
       </c>
       <c r="P54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -5099,27 +5157,27 @@
         <v>100</v>
       </c>
       <c r="S54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U54" t="s">
+        <v>106</v>
+      </c>
+      <c r="V54" t="s">
+        <v>147</v>
+      </c>
+      <c r="W54" t="s">
         <v>108</v>
-      </c>
-      <c r="V54" t="s">
-        <v>149</v>
-      </c>
-      <c r="W54" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C55" s="9">
         <v>39.833851000000003</v>
@@ -5128,13 +5186,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -5158,7 +5219,7 @@
         <v>3</v>
       </c>
       <c r="P55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q55">
         <v>1</v>
@@ -5167,27 +5228,27 @@
         <v>100</v>
       </c>
       <c r="S55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U55" t="s">
+        <v>106</v>
+      </c>
+      <c r="V55" t="s">
+        <v>149</v>
+      </c>
+      <c r="W55" t="s">
         <v>108</v>
-      </c>
-      <c r="V55" t="s">
-        <v>151</v>
-      </c>
-      <c r="W55" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C56" s="9">
         <v>39.833851000000003</v>
@@ -5196,13 +5257,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5226,7 +5290,7 @@
         <v>4</v>
       </c>
       <c r="P56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -5235,27 +5299,27 @@
         <v>100</v>
       </c>
       <c r="S56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U56" t="s">
+        <v>106</v>
+      </c>
+      <c r="V56" t="s">
+        <v>151</v>
+      </c>
+      <c r="W56" t="s">
         <v>108</v>
-      </c>
-      <c r="V56" t="s">
-        <v>153</v>
-      </c>
-      <c r="W56" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C57" s="9">
         <v>39.833851000000003</v>
@@ -5264,13 +5328,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5294,7 +5361,7 @@
         <v>5</v>
       </c>
       <c r="P57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -5303,27 +5370,27 @@
         <v>100</v>
       </c>
       <c r="S57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U57" t="s">
+        <v>106</v>
+      </c>
+      <c r="V57" t="s">
+        <v>153</v>
+      </c>
+      <c r="W57" t="s">
         <v>108</v>
-      </c>
-      <c r="V57" t="s">
-        <v>155</v>
-      </c>
-      <c r="W57" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C58" s="9">
         <v>39.833851000000003</v>
@@ -5332,13 +5399,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5362,7 +5432,7 @@
         <v>6</v>
       </c>
       <c r="P58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -5371,27 +5441,27 @@
         <v>100</v>
       </c>
       <c r="S58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U58" t="s">
+        <v>106</v>
+      </c>
+      <c r="V58" t="s">
+        <v>155</v>
+      </c>
+      <c r="W58" t="s">
         <v>108</v>
-      </c>
-      <c r="V58" t="s">
-        <v>157</v>
-      </c>
-      <c r="W58" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C59" s="9">
         <v>39.833851000000003</v>
@@ -5400,13 +5470,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5430,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -5439,27 +5512,27 @@
         <v>100</v>
       </c>
       <c r="S59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U59" t="s">
+        <v>106</v>
+      </c>
+      <c r="V59" t="s">
+        <v>157</v>
+      </c>
+      <c r="W59" t="s">
         <v>108</v>
-      </c>
-      <c r="V59" t="s">
-        <v>159</v>
-      </c>
-      <c r="W59" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C60" s="9">
         <v>39.833851000000003</v>
@@ -5468,13 +5541,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -5498,7 +5574,7 @@
         <v>2</v>
       </c>
       <c r="P60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -5507,27 +5583,27 @@
         <v>100</v>
       </c>
       <c r="S60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U60" t="s">
+        <v>106</v>
+      </c>
+      <c r="V60" t="s">
+        <v>159</v>
+      </c>
+      <c r="W60" t="s">
         <v>108</v>
-      </c>
-      <c r="V60" t="s">
-        <v>161</v>
-      </c>
-      <c r="W60" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C61" s="9">
         <v>39.833851000000003</v>
@@ -5536,13 +5612,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -5566,7 +5645,7 @@
         <v>3</v>
       </c>
       <c r="P61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -5575,27 +5654,27 @@
         <v>100</v>
       </c>
       <c r="S61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U61" t="s">
+        <v>106</v>
+      </c>
+      <c r="V61" t="s">
+        <v>161</v>
+      </c>
+      <c r="W61" t="s">
         <v>108</v>
-      </c>
-      <c r="V61" t="s">
-        <v>163</v>
-      </c>
-      <c r="W61" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C62" s="9">
         <v>39.833851000000003</v>
@@ -5604,13 +5683,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -5634,7 +5716,7 @@
         <v>4</v>
       </c>
       <c r="P62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -5643,27 +5725,27 @@
         <v>100</v>
       </c>
       <c r="S62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U62" t="s">
+        <v>106</v>
+      </c>
+      <c r="V62" t="s">
+        <v>163</v>
+      </c>
+      <c r="W62" t="s">
         <v>108</v>
-      </c>
-      <c r="V62" t="s">
-        <v>165</v>
-      </c>
-      <c r="W62" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C63" s="9">
         <v>39.833851000000003</v>
@@ -5672,13 +5754,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -5702,7 +5787,7 @@
         <v>5</v>
       </c>
       <c r="P63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -5711,27 +5796,27 @@
         <v>100</v>
       </c>
       <c r="S63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U63" t="s">
+        <v>106</v>
+      </c>
+      <c r="V63" t="s">
+        <v>165</v>
+      </c>
+      <c r="W63" t="s">
         <v>108</v>
-      </c>
-      <c r="V63" t="s">
-        <v>167</v>
-      </c>
-      <c r="W63" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C64" s="9">
         <v>39.833851000000003</v>
@@ -5740,13 +5825,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -5770,7 +5858,7 @@
         <v>6</v>
       </c>
       <c r="P64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -5779,27 +5867,27 @@
         <v>100</v>
       </c>
       <c r="S64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U64" t="s">
+        <v>106</v>
+      </c>
+      <c r="V64" t="s">
+        <v>167</v>
+      </c>
+      <c r="W64" t="s">
         <v>108</v>
-      </c>
-      <c r="V64" t="s">
-        <v>169</v>
-      </c>
-      <c r="W64" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C65" s="9">
         <v>39.833851000000003</v>
@@ -5808,13 +5896,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -5838,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -5847,27 +5938,27 @@
         <v>100</v>
       </c>
       <c r="S65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U65" t="s">
+        <v>106</v>
+      </c>
+      <c r="V65" t="s">
+        <v>169</v>
+      </c>
+      <c r="W65" t="s">
         <v>108</v>
-      </c>
-      <c r="V65" t="s">
-        <v>171</v>
-      </c>
-      <c r="W65" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C66" s="9">
         <v>39.833851000000003</v>
@@ -5876,13 +5967,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -5906,7 +6000,7 @@
         <v>2</v>
       </c>
       <c r="P66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -5915,27 +6009,27 @@
         <v>100</v>
       </c>
       <c r="S66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U66" t="s">
+        <v>106</v>
+      </c>
+      <c r="V66" t="s">
+        <v>171</v>
+      </c>
+      <c r="W66" t="s">
         <v>108</v>
-      </c>
-      <c r="V66" t="s">
-        <v>173</v>
-      </c>
-      <c r="W66" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C67" s="9">
         <v>39.833851000000003</v>
@@ -5944,13 +6038,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -5974,7 +6071,7 @@
         <v>3</v>
       </c>
       <c r="P67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -5983,27 +6080,27 @@
         <v>100</v>
       </c>
       <c r="S67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U67" t="s">
+        <v>106</v>
+      </c>
+      <c r="V67" t="s">
+        <v>173</v>
+      </c>
+      <c r="W67" t="s">
         <v>108</v>
-      </c>
-      <c r="V67" t="s">
-        <v>175</v>
-      </c>
-      <c r="W67" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C68" s="9">
         <v>39.833851000000003</v>
@@ -6012,13 +6109,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6042,7 +6142,7 @@
         <v>4</v>
       </c>
       <c r="P68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -6051,27 +6151,27 @@
         <v>100</v>
       </c>
       <c r="S68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U68" t="s">
+        <v>106</v>
+      </c>
+      <c r="V68" t="s">
+        <v>175</v>
+      </c>
+      <c r="W68" t="s">
         <v>108</v>
-      </c>
-      <c r="V68" t="s">
-        <v>177</v>
-      </c>
-      <c r="W68" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C69" s="9">
         <v>39.833851000000003</v>
@@ -6080,13 +6180,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -6110,7 +6213,7 @@
         <v>5</v>
       </c>
       <c r="P69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -6119,27 +6222,27 @@
         <v>100</v>
       </c>
       <c r="S69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U69" t="s">
+        <v>106</v>
+      </c>
+      <c r="V69" t="s">
+        <v>177</v>
+      </c>
+      <c r="W69" t="s">
         <v>108</v>
-      </c>
-      <c r="V69" t="s">
-        <v>179</v>
-      </c>
-      <c r="W69" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C70" s="9">
         <v>39.833851000000003</v>
@@ -6148,13 +6251,16 @@
         <v>-74.871825999999999</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="H70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -6178,7 +6284,7 @@
         <v>6</v>
       </c>
       <c r="P70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -6187,27 +6293,27 @@
         <v>100</v>
       </c>
       <c r="S70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U70" t="s">
+        <v>106</v>
+      </c>
+      <c r="V70" t="s">
+        <v>179</v>
+      </c>
+      <c r="W70" t="s">
         <v>108</v>
-      </c>
-      <c r="V70" t="s">
-        <v>181</v>
-      </c>
-      <c r="W70" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C71" s="3">
         <v>40.332000000000001</v>
@@ -6216,16 +6322,16 @@
         <v>-74.725499999999997</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="H71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -6249,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q71" s="3">
         <v>1</v>
@@ -6258,27 +6364,27 @@
         <v>100</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U71" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V71" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="W71" s="14" t="s">
         <v>232</v>
-      </c>
-      <c r="V71" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="W71" s="14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C72" s="3">
         <v>40.332000000000001</v>
@@ -6287,16 +6393,16 @@
         <v>-74.725499999999997</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="H72" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I72" s="3">
         <v>1</v>
@@ -6320,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q72" s="3">
         <v>1</v>
@@ -6329,27 +6435,27 @@
         <v>100</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="W72" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C73" s="3">
         <v>40.332000000000001</v>
@@ -6358,16 +6464,16 @@
         <v>-74.725499999999997</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="H73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I73" s="3">
         <v>1</v>
@@ -6391,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="P73" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q73" s="3">
         <v>1</v>
@@ -6400,27 +6506,27 @@
         <v>100</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V73" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="W73" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C74" s="3">
         <v>40.332000000000001</v>
@@ -6429,16 +6535,16 @@
         <v>-74.725499999999997</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="H74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I74" s="3">
         <v>1</v>
@@ -6462,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q74" s="3">
         <v>1</v>
@@ -6471,27 +6577,27 @@
         <v>100</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="W74" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C75" s="3">
         <v>40.332000000000001</v>
@@ -6500,16 +6606,16 @@
         <v>-74.725499999999997</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="H75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I75" s="3">
         <v>1</v>
@@ -6533,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q75" s="3">
         <v>1</v>
@@ -6542,27 +6648,27 @@
         <v>100</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V75" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W75" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C76" s="3">
         <v>40.332000000000001</v>
@@ -6571,16 +6677,16 @@
         <v>-74.725499999999997</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="H76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I76" s="3">
         <v>1</v>
@@ -6604,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q76" s="3">
         <v>1</v>
@@ -6613,27 +6719,27 @@
         <v>100</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V76" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="W76" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C77" s="11">
         <v>42.340400000000002</v>
@@ -6642,16 +6748,16 @@
         <v>72.505099999999999</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I77" s="3">
         <v>1</v>
@@ -6675,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q77" s="3">
         <v>1</v>
@@ -6684,27 +6790,27 @@
         <v>25</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U77" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="W77" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="V77" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="W77" s="16" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C78" s="11">
         <v>42.340400000000002</v>
@@ -6713,16 +6819,16 @@
         <v>72.505099999999999</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I78" s="3">
         <v>1</v>
@@ -6746,7 +6852,7 @@
         <v>2</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q78" s="3">
         <v>1</v>
@@ -6755,27 +6861,27 @@
         <v>25</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="W78" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C79" s="11">
         <v>42.340400000000002</v>
@@ -6784,16 +6890,16 @@
         <v>72.505099999999999</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I79" s="3">
         <v>1</v>
@@ -6817,7 +6923,7 @@
         <v>3</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q79" s="3">
         <v>1</v>
@@ -6826,27 +6932,27 @@
         <v>25</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W79" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C80" s="11">
         <v>42.340400000000002</v>
@@ -6855,16 +6961,16 @@
         <v>72.505099999999999</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I80" s="3">
         <v>1</v>
@@ -6888,7 +6994,7 @@
         <v>4</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q80" s="3">
         <v>1</v>
@@ -6897,27 +7003,27 @@
         <v>25</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W80" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C81" s="11">
         <v>42.340400000000002</v>
@@ -6926,16 +7032,16 @@
         <v>72.505099999999999</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I81" s="3">
         <v>1</v>
@@ -6959,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q81" s="3">
         <v>1</v>
@@ -6968,27 +7074,27 @@
         <v>25</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W81" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C82" s="11">
         <v>42.340400000000002</v>
@@ -6997,16 +7103,16 @@
         <v>72.505099999999999</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I82" s="3">
         <v>1</v>
@@ -7030,7 +7136,7 @@
         <v>2</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q82" s="3">
         <v>1</v>
@@ -7039,27 +7145,27 @@
         <v>25</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="W82" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C83" s="11">
         <v>42.340400000000002</v>
@@ -7068,16 +7174,16 @@
         <v>72.505099999999999</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I83" s="3">
         <v>1</v>
@@ -7101,7 +7207,7 @@
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q83" s="3">
         <v>1</v>
@@ -7110,27 +7216,27 @@
         <v>25</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V83" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W83" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:23">
       <c r="A84" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C84" s="11">
         <v>42.340400000000002</v>
@@ -7139,16 +7245,16 @@
         <v>72.505099999999999</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I84" s="3">
         <v>1</v>
@@ -7172,7 +7278,7 @@
         <v>4</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q84" s="3">
         <v>1</v>
@@ -7181,19 +7287,19 @@
         <v>25</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W84" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/utils/gds_files/expevo_samps.xlsx
+++ b/utils/gds_files/expevo_samps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/utils/gds_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702255AE-33DE-3046-BBA3-CA2EFA2C4B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF84BFB-D77E-F640-B7EB-7A2C73E75D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2760" windowWidth="25240" windowHeight="12600" xr2:uid="{0BB9E18F-2BBA-4141-986C-60165C1F0EA3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="296">
   <si>
     <t>ExpEvo_PRJNA194129_BL_1_2010-06-DD</t>
   </si>
@@ -849,6 +849,81 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>ExpEvo_PRJNA304655_AK2_1_2009-03-DD</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Jabalpur</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>desiccation</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq 2500</t>
+  </si>
+  <si>
+    <t>SRR2968975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI 10.1186/s12864-016-2556-y </t>
+  </si>
+  <si>
+    <t>ExpEvo_PRJNA304655_AK2_2_2009-03-DD</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq 2501</t>
+  </si>
+  <si>
+    <t>SRR2968976</t>
+  </si>
+  <si>
+    <t>ExpEvo_PRJNA304655_AK2_3_2009-03-DD</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq 2502</t>
+  </si>
+  <si>
+    <t>SRR2968977</t>
+  </si>
+  <si>
+    <t>ExpEvo_PRJNA304655_AK2_4_2009-03-DD</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq 2503</t>
+  </si>
+  <si>
+    <t>SRR2968979</t>
+  </si>
+  <si>
+    <t>ExpEvo_PRJNA304655_AK2_7_2009-03-DD</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq 2504</t>
+  </si>
+  <si>
+    <t>SRR2968980</t>
+  </si>
+  <si>
+    <t>ExpEvo_PRJNA304655_AK2_8_2009-03-DD</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq 2505</t>
+  </si>
+  <si>
+    <t>SRR2968981</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1011,7 +1086,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1326,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60C520E-CB1D-8340-B3C4-4A49B2EBA725}">
-  <dimension ref="A1:W84"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D76"/>
+    <sheetView tabSelected="1" topLeftCell="K75" workbookViewId="0">
+      <selection activeCell="W96" sqref="W96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3771,7 +3845,7 @@
       <c r="F35" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" t="s">
         <v>270</v>
       </c>
       <c r="H35" t="s">
@@ -3842,7 +3916,7 @@
       <c r="F36" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" t="s">
         <v>270</v>
       </c>
       <c r="H36" t="s">
@@ -3913,7 +3987,7 @@
       <c r="F37" t="s">
         <v>3</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" t="s">
         <v>270</v>
       </c>
       <c r="H37" t="s">
@@ -3984,7 +4058,7 @@
       <c r="F38" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" t="s">
         <v>270</v>
       </c>
       <c r="H38" t="s">
@@ -4055,7 +4129,7 @@
       <c r="F39" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" t="s">
         <v>270</v>
       </c>
       <c r="H39" t="s">
@@ -4126,7 +4200,7 @@
       <c r="F40" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" t="s">
         <v>270</v>
       </c>
       <c r="H40" t="s">
@@ -4197,7 +4271,7 @@
       <c r="F41" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" t="s">
         <v>270</v>
       </c>
       <c r="H41" t="s">
@@ -4268,7 +4342,7 @@
       <c r="F42" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" t="s">
         <v>270</v>
       </c>
       <c r="H42" t="s">
@@ -4339,7 +4413,7 @@
       <c r="F43" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" t="s">
         <v>270</v>
       </c>
       <c r="H43" t="s">
@@ -4410,7 +4484,7 @@
       <c r="F44" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" t="s">
         <v>270</v>
       </c>
       <c r="H44" t="s">
@@ -4481,7 +4555,7 @@
       <c r="F45" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" t="s">
         <v>270</v>
       </c>
       <c r="H45" t="s">
@@ -4552,7 +4626,7 @@
       <c r="F46" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" t="s">
         <v>270</v>
       </c>
       <c r="H46" t="s">
@@ -4623,7 +4697,7 @@
       <c r="F47" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" t="s">
         <v>270</v>
       </c>
       <c r="H47" t="s">
@@ -4694,7 +4768,7 @@
       <c r="F48" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" t="s">
         <v>270</v>
       </c>
       <c r="H48" t="s">
@@ -4765,7 +4839,7 @@
       <c r="F49" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" t="s">
         <v>270</v>
       </c>
       <c r="H49" t="s">
@@ -4836,7 +4910,7 @@
       <c r="F50" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" t="s">
         <v>270</v>
       </c>
       <c r="H50" t="s">
@@ -4907,7 +4981,7 @@
       <c r="F51" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" t="s">
         <v>270</v>
       </c>
       <c r="H51" t="s">
@@ -4978,7 +5052,7 @@
       <c r="F52" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" t="s">
         <v>270</v>
       </c>
       <c r="H52" t="s">
@@ -5049,7 +5123,7 @@
       <c r="F53" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" t="s">
         <v>270</v>
       </c>
       <c r="H53" t="s">
@@ -5120,7 +5194,7 @@
       <c r="F54" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" t="s">
         <v>270</v>
       </c>
       <c r="H54" t="s">
@@ -5191,7 +5265,7 @@
       <c r="F55" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" t="s">
         <v>270</v>
       </c>
       <c r="H55" t="s">
@@ -5262,7 +5336,7 @@
       <c r="F56" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" t="s">
         <v>270</v>
       </c>
       <c r="H56" t="s">
@@ -5333,7 +5407,7 @@
       <c r="F57" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" t="s">
         <v>270</v>
       </c>
       <c r="H57" t="s">
@@ -5404,7 +5478,7 @@
       <c r="F58" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" t="s">
         <v>270</v>
       </c>
       <c r="H58" t="s">
@@ -5475,7 +5549,7 @@
       <c r="F59" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" t="s">
         <v>270</v>
       </c>
       <c r="H59" t="s">
@@ -5546,7 +5620,7 @@
       <c r="F60" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" t="s">
         <v>270</v>
       </c>
       <c r="H60" t="s">
@@ -5617,7 +5691,7 @@
       <c r="F61" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" t="s">
         <v>270</v>
       </c>
       <c r="H61" t="s">
@@ -5688,7 +5762,7 @@
       <c r="F62" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" t="s">
         <v>270</v>
       </c>
       <c r="H62" t="s">
@@ -5759,7 +5833,7 @@
       <c r="F63" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" t="s">
         <v>270</v>
       </c>
       <c r="H63" t="s">
@@ -5830,7 +5904,7 @@
       <c r="F64" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" t="s">
         <v>270</v>
       </c>
       <c r="H64" t="s">
@@ -5901,7 +5975,7 @@
       <c r="F65" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G65" t="s">
         <v>270</v>
       </c>
       <c r="H65" t="s">
@@ -5972,7 +6046,7 @@
       <c r="F66" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
       <c r="H66" t="s">
@@ -6043,7 +6117,7 @@
       <c r="F67" t="s">
         <v>3</v>
       </c>
-      <c r="G67" s="17" t="s">
+      <c r="G67" t="s">
         <v>270</v>
       </c>
       <c r="H67" t="s">
@@ -6114,7 +6188,7 @@
       <c r="F68" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="G68" t="s">
         <v>270</v>
       </c>
       <c r="H68" t="s">
@@ -6185,7 +6259,7 @@
       <c r="F69" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="17" t="s">
+      <c r="G69" t="s">
         <v>270</v>
       </c>
       <c r="H69" t="s">
@@ -6256,7 +6330,7 @@
       <c r="F70" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="17" t="s">
+      <c r="G70" t="s">
         <v>270</v>
       </c>
       <c r="H70" t="s">
@@ -7300,6 +7374,432 @@
       </c>
       <c r="W84" s="16" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" t="s">
+        <v>271</v>
+      </c>
+      <c r="B85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85">
+        <v>23.3</v>
+      </c>
+      <c r="D85">
+        <v>-80.010000000000005</v>
+      </c>
+      <c r="E85" t="s">
+        <v>273</v>
+      </c>
+      <c r="F85" t="s">
+        <v>274</v>
+      </c>
+      <c r="G85" t="s">
+        <v>275</v>
+      </c>
+      <c r="H85" t="s">
+        <v>276</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>31</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>2009</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>100</v>
+      </c>
+      <c r="S85" t="s">
+        <v>7</v>
+      </c>
+      <c r="T85" t="s">
+        <v>8</v>
+      </c>
+      <c r="U85" t="s">
+        <v>278</v>
+      </c>
+      <c r="V85" t="s">
+        <v>279</v>
+      </c>
+      <c r="W85" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" t="s">
+        <v>281</v>
+      </c>
+      <c r="B86" t="s">
+        <v>272</v>
+      </c>
+      <c r="C86">
+        <v>23.3</v>
+      </c>
+      <c r="D86">
+        <v>-80.010000000000005</v>
+      </c>
+      <c r="E86" t="s">
+        <v>273</v>
+      </c>
+      <c r="F86" t="s">
+        <v>274</v>
+      </c>
+      <c r="G86" t="s">
+        <v>275</v>
+      </c>
+      <c r="H86" t="s">
+        <v>276</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>31</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>2009</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>100</v>
+      </c>
+      <c r="S86" t="s">
+        <v>7</v>
+      </c>
+      <c r="T86" t="s">
+        <v>8</v>
+      </c>
+      <c r="U86" t="s">
+        <v>282</v>
+      </c>
+      <c r="V86" t="s">
+        <v>283</v>
+      </c>
+      <c r="W86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87">
+        <v>23.3</v>
+      </c>
+      <c r="D87">
+        <v>-80.010000000000005</v>
+      </c>
+      <c r="E87" t="s">
+        <v>273</v>
+      </c>
+      <c r="F87" t="s">
+        <v>274</v>
+      </c>
+      <c r="G87" t="s">
+        <v>275</v>
+      </c>
+      <c r="H87" t="s">
+        <v>276</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>31</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>2009</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>100</v>
+      </c>
+      <c r="S87" t="s">
+        <v>7</v>
+      </c>
+      <c r="T87" t="s">
+        <v>8</v>
+      </c>
+      <c r="U87" t="s">
+        <v>285</v>
+      </c>
+      <c r="V87" t="s">
+        <v>286</v>
+      </c>
+      <c r="W87" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88">
+        <v>23.3</v>
+      </c>
+      <c r="D88">
+        <v>-80.010000000000005</v>
+      </c>
+      <c r="E88" t="s">
+        <v>273</v>
+      </c>
+      <c r="F88" t="s">
+        <v>274</v>
+      </c>
+      <c r="G88" t="s">
+        <v>275</v>
+      </c>
+      <c r="H88" t="s">
+        <v>276</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>31</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>2009</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>100</v>
+      </c>
+      <c r="S88" t="s">
+        <v>7</v>
+      </c>
+      <c r="T88" t="s">
+        <v>8</v>
+      </c>
+      <c r="U88" t="s">
+        <v>288</v>
+      </c>
+      <c r="V88" t="s">
+        <v>289</v>
+      </c>
+      <c r="W88" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" t="s">
+        <v>290</v>
+      </c>
+      <c r="B89" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89">
+        <v>23.3</v>
+      </c>
+      <c r="D89">
+        <v>-80.010000000000005</v>
+      </c>
+      <c r="E89" t="s">
+        <v>273</v>
+      </c>
+      <c r="F89" t="s">
+        <v>274</v>
+      </c>
+      <c r="G89" t="s">
+        <v>275</v>
+      </c>
+      <c r="H89" t="s">
+        <v>276</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>31</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>2009</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>100</v>
+      </c>
+      <c r="S89" t="s">
+        <v>7</v>
+      </c>
+      <c r="T89" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" t="s">
+        <v>291</v>
+      </c>
+      <c r="V89" t="s">
+        <v>292</v>
+      </c>
+      <c r="W89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90">
+        <v>23.3</v>
+      </c>
+      <c r="D90">
+        <v>-80.010000000000005</v>
+      </c>
+      <c r="E90" t="s">
+        <v>273</v>
+      </c>
+      <c r="F90" t="s">
+        <v>274</v>
+      </c>
+      <c r="G90" t="s">
+        <v>275</v>
+      </c>
+      <c r="H90" t="s">
+        <v>276</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>31</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>2009</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>100</v>
+      </c>
+      <c r="S90" t="s">
+        <v>7</v>
+      </c>
+      <c r="T90" t="s">
+        <v>8</v>
+      </c>
+      <c r="U90" t="s">
+        <v>294</v>
+      </c>
+      <c r="V90" t="s">
+        <v>295</v>
+      </c>
+      <c r="W90" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/utils/gds_files/expevo_samps.xlsx
+++ b/utils/gds_files/expevo_samps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/utils/gds_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF84BFB-D77E-F640-B7EB-7A2C73E75D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66624D9-302E-F54E-B9FD-0BFABB2DE864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2760" windowWidth="25240" windowHeight="12600" xr2:uid="{0BB9E18F-2BBA-4141-986C-60165C1F0EA3}"/>
   </bookViews>

--- a/utils/gds_files/expevo_samps.xlsx
+++ b/utils/gds_files/expevo_samps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/utils/gds_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66624D9-302E-F54E-B9FD-0BFABB2DE864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E6CE32-B056-DC41-8A7D-EBAF9EEF1FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2760" windowWidth="25240" windowHeight="12600" xr2:uid="{0BB9E18F-2BBA-4141-986C-60165C1F0EA3}"/>
   </bookViews>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60C520E-CB1D-8340-B3C4-4A49B2EBA725}">
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K75" workbookViewId="0">
-      <selection activeCell="W96" sqref="W96"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/utils/gds_files/expevo_samps.xlsx
+++ b/utils/gds_files/expevo_samps.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/utils/gds_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E6CE32-B056-DC41-8A7D-EBAF9EEF1FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C09D13-DE97-4D45-9204-DE71B75C1835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2760" windowWidth="25240" windowHeight="12600" xr2:uid="{0BB9E18F-2BBA-4141-986C-60165C1F0EA3}"/>
+    <workbookView xWindow="440" yWindow="1200" windowWidth="25240" windowHeight="12600" xr2:uid="{0BB9E18F-2BBA-4141-986C-60165C1F0EA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60C520E-CB1D-8340-B3C4-4A49B2EBA725}">
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
